--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03FE809-8350-401C-BAF2-7822AA5A45A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5969BA6-8798-4B79-BFF9-A1D431E4A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t xml:space="preserve">Осадка на кормовом перпендикуляре                               </t>
   </si>
   <si>
-    <t>Осадка средняя                                                  </t>
-  </si>
-  <si>
     <t>Осадка на носовом перпендикуляре                                </t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   </si>
   <si>
     <t xml:space="preserve">Поперечная метацентрическая высота исправленная                 </t>
+  </si>
+  <si>
+    <t>Осадка в цт площади ватерлинии                                                 </t>
   </si>
 </sst>
 </file>
@@ -842,10 +842,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1197,31 +1197,31 @@
         <v>78</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1273,22 +1273,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="19">
         <v>13987</v>
@@ -1299,7 +1299,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>113</v>
@@ -1313,7 +1313,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>113</v>
@@ -1327,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="19">
         <v>4.9429999999999996</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>113</v>
@@ -1365,19 +1365,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>113</v>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>113</v>
@@ -1419,10 +1419,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -1436,7 +1436,7 @@
         <v>146</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="19">
         <v>-0.01</v>
@@ -1447,7 +1447,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>113</v>
@@ -1476,7 +1476,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>113</v>
@@ -1490,7 +1490,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>113</v>
@@ -1504,7 +1504,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>113</v>
@@ -1518,7 +1518,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>113</v>
@@ -1532,7 +1532,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>113</v>
@@ -1546,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>113</v>
@@ -1560,7 +1560,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>113</v>
@@ -1574,7 +1574,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>113</v>
@@ -1588,7 +1588,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>113</v>
@@ -1602,7 +1602,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>113</v>
@@ -1616,7 +1616,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>113</v>
@@ -1630,7 +1630,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>113</v>
@@ -1644,7 +1644,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>113</v>
@@ -1654,22 +1654,22 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="A30" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" s="19">
         <v>19.869</v>
@@ -1680,10 +1680,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -1694,10 +1694,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" s="19">
         <v>193.577</v>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>113</v>
@@ -1766,7 +1766,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>113</v>
@@ -1782,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>113</v>
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>113</v>
@@ -1899,7 +1899,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -1913,7 +1913,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" s="19">
         <v>883.84199999999998</v>
@@ -1970,7 +1970,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="19">
         <v>0.93200000000000005</v>
@@ -1984,7 +1984,7 @@
         <v>97</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="19">
         <v>1.393</v>
@@ -1998,7 +1998,7 @@
         <v>98</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2012,7 +2012,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="19">
         <v>23.396999999999998</v>
@@ -2026,7 +2026,7 @@
         <v>100</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="19">
         <v>8.3670000000000009</v>
@@ -2040,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" s="19">
         <v>0.17022000000000001</v>
@@ -2054,7 +2054,7 @@
         <v>102</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" s="19">
         <v>0.71457999999999999</v>
@@ -2068,7 +2068,7 @@
         <v>103</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="19">
         <v>22.748000000000001</v>
@@ -2082,7 +2082,7 @@
         <v>104</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="19">
         <v>49.01</v>
@@ -2096,7 +2096,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2110,7 +2110,7 @@
         <v>106</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -2124,7 +2124,7 @@
         <v>107</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -2138,7 +2138,7 @@
         <v>108</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -2230,7 +2230,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>21.9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
         <v>129.9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>51.5</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>217.2</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2657,7 +2657,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>11.2</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
         <v>11.2</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>56.1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>56.1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,7 +2827,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
         <v>10.3</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,7 +2963,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3225,16 +3225,16 @@
         <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>71</v>
@@ -3243,21 +3243,21 @@
         <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="10">
         <v>4959</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="10">
         <v>4959</v>
@@ -4036,7 +4036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -4313,7 +4313,7 @@
       <c r="B17" s="18">
         <v>1.2768999999999999</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -4322,7 +4322,7 @@
       <c r="B18" s="18">
         <v>1.4705999999999999</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -4331,7 +4331,7 @@
       <c r="B19" s="18">
         <v>1.6377999999999999</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -4340,7 +4340,7 @@
       <c r="B20" s="18">
         <v>1.7667999999999999</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -4349,7 +4349,7 @@
       <c r="B21" s="18">
         <v>1.8440000000000001</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4395,7 +4395,7 @@
         <v>120</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="19">
         <v>4.1980000000000004</v>
@@ -4418,7 +4418,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="19">
         <v>0.93200000000000005</v>
@@ -4441,7 +4441,7 @@
         <v>124</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="19">
         <v>0.27600000000000002</v>
@@ -4464,7 +4464,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -4487,7 +4487,7 @@
         <v>126</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="19">
         <v>0.499</v>
@@ -4510,7 +4510,7 @@
         <v>127</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="19">
         <v>0.223</v>
@@ -4602,7 +4602,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="19">
         <v>55</v>
@@ -4625,7 +4625,7 @@
         <v>132</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
@@ -4671,7 +4671,7 @@
         <v>134</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -4694,7 +4694,7 @@
         <v>135</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
@@ -4717,7 +4717,7 @@
         <v>136</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
@@ -4740,7 +4740,7 @@
         <v>137</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5969BA6-8798-4B79-BFF9-A1D431E4A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39662A92-A1C2-4661-A1CA-A443460E3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="216">
   <si>
     <t>Форпик</t>
   </si>
@@ -682,6 +682,15 @@
   </si>
   <si>
     <t>Осадка в цт площади ватерлинии                                                 </t>
+  </si>
+  <si>
+    <t>Погрешность относительная</t>
+  </si>
+  <si>
+    <t>Погрешность абсолютная</t>
+  </si>
+  <si>
+    <t>±0,5 % ширины судна</t>
   </si>
 </sst>
 </file>
@@ -775,7 +784,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -842,9 +851,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1245,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1254,33 +1274,43 @@
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1293,8 +1323,14 @@
       <c r="D3" s="19">
         <v>13987</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>32</v>
       </c>
@@ -1307,8 +1343,14 @@
       <c r="D4" s="19">
         <v>65.230999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>56</v>
       </c>
@@ -1321,8 +1363,14 @@
       <c r="D5" s="19">
         <v>65.230999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>12</v>
       </c>
@@ -1335,8 +1383,14 @@
       <c r="D6" s="19">
         <v>4.9429999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -1349,8 +1403,14 @@
       <c r="D7" s="19">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>52</v>
       </c>
@@ -1363,16 +1423,24 @@
       <c r="D8" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -1385,8 +1453,14 @@
       <c r="D10" s="19">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -1399,8 +1473,14 @@
       <c r="D11" s="19">
         <v>7.89</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>5</v>
       </c>
@@ -1413,8 +1493,14 @@
       <c r="D12" s="19">
         <v>7.9660000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -1427,8 +1513,14 @@
       <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -1441,8 +1533,14 @@
       <c r="D14" s="19">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>51</v>
       </c>
@@ -1456,8 +1554,14 @@
         <f>D11-D12</f>
         <v>-7.6000000000000512E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>80</v>
       </c>
@@ -1470,8 +1574,14 @@
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>81</v>
       </c>
@@ -1484,8 +1594,14 @@
       <c r="D17" s="19">
         <v>7.9630000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>82</v>
       </c>
@@ -1498,8 +1614,14 @@
       <c r="D18" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>83</v>
       </c>
@@ -1512,8 +1634,14 @@
       <c r="D19" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>84</v>
       </c>
@@ -1526,8 +1654,14 @@
       <c r="D20" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>85</v>
       </c>
@@ -1540,8 +1674,14 @@
       <c r="D21" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>86</v>
       </c>
@@ -1554,8 +1694,14 @@
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>87</v>
       </c>
@@ -1568,8 +1714,14 @@
       <c r="D23" s="19">
         <v>7.9279999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>88</v>
       </c>
@@ -1582,8 +1734,14 @@
       <c r="D24" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>89</v>
       </c>
@@ -1596,8 +1754,14 @@
       <c r="D25" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>90</v>
       </c>
@@ -1610,8 +1774,14 @@
       <c r="D26" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>91</v>
       </c>
@@ -1624,8 +1794,14 @@
       <c r="D27" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>92</v>
       </c>
@@ -1638,8 +1814,14 @@
       <c r="D28" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>93</v>
       </c>
@@ -1652,16 +1834,24 @@
       <c r="D29" s="19">
         <v>7.89</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>8</v>
       </c>
@@ -1674,8 +1864,14 @@
       <c r="D31" s="19">
         <v>19.869</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>9</v>
       </c>
@@ -1686,6 +1882,12 @@
         <v>158</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1702,6 +1904,12 @@
       <c r="D33" s="19">
         <v>193.577</v>
       </c>
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
@@ -1716,6 +1924,12 @@
       <c r="D34" s="19">
         <v>4.1269999999999998</v>
       </c>
+      <c r="E34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -1730,6 +1944,12 @@
       <c r="D35" s="19">
         <v>2.7410000000000001</v>
       </c>
+      <c r="E35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
@@ -1745,6 +1965,12 @@
         <f>D35+D34</f>
         <v>6.8680000000000003</v>
       </c>
+      <c r="E36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
@@ -1760,6 +1986,12 @@
         <f>D40+D39+D38</f>
         <v>1.9260812871332358</v>
       </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -1775,6 +2007,12 @@
         <f>(108.1+17.1+10.8+14.9+101.8)/14194.1</f>
         <v>1.7803171740370997E-2</v>
       </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1791,6 +2029,12 @@
         <f>423.5/D3</f>
         <v>3.0278115392864804E-2</v>
       </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
@@ -1805,6 +2049,12 @@
       <c r="D40" s="19">
         <v>1.8779999999999999</v>
       </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
@@ -1819,6 +2069,12 @@
       <c r="D41" s="19">
         <v>180.61</v>
       </c>
+      <c r="E41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -1834,6 +2090,12 @@
         <f>D41+D34</f>
         <v>184.73700000000002</v>
       </c>
+      <c r="E42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
@@ -1848,6 +2110,12 @@
       <c r="D43" s="19" t="s">
         <v>54</v>
       </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -1862,6 +2130,12 @@
       <c r="D44" s="21" t="s">
         <v>54</v>
       </c>
+      <c r="E44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -1876,6 +2150,12 @@
       <c r="D45" s="21" t="s">
         <v>54</v>
       </c>
+      <c r="E45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
@@ -1890,6 +2170,12 @@
       <c r="D46" s="19" t="s">
         <v>54</v>
       </c>
+      <c r="E46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -1904,6 +2190,12 @@
       <c r="D47" s="19" t="s">
         <v>54</v>
       </c>
+      <c r="E47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
@@ -1918,9 +2210,15 @@
       <c r="D48" s="19">
         <v>883.84199999999998</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>35</v>
       </c>
@@ -1933,8 +2231,14 @@
       <c r="D49" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <v>5</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>36</v>
       </c>
@@ -1947,8 +2251,14 @@
       <c r="D50" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>37</v>
       </c>
@@ -1961,8 +2271,14 @@
       <c r="D51" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>38</v>
       </c>
@@ -1975,8 +2291,14 @@
       <c r="D52" s="19">
         <v>0.93200000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>39</v>
       </c>
@@ -1989,8 +2311,14 @@
       <c r="D53" s="19">
         <v>1.393</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>40</v>
       </c>
@@ -2003,8 +2331,14 @@
       <c r="D54" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>41</v>
       </c>
@@ -2017,8 +2351,14 @@
       <c r="D55" s="19">
         <v>23.396999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>42</v>
       </c>
@@ -2031,8 +2371,14 @@
       <c r="D56" s="19">
         <v>8.3670000000000009</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>43</v>
       </c>
@@ -2045,8 +2391,14 @@
       <c r="D57" s="19">
         <v>0.17022000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>44</v>
       </c>
@@ -2059,8 +2411,14 @@
       <c r="D58" s="19">
         <v>0.71457999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>45</v>
       </c>
@@ -2073,8 +2431,14 @@
       <c r="D59" s="19">
         <v>22.748000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>46</v>
       </c>
@@ -2087,8 +2451,14 @@
       <c r="D60" s="19">
         <v>49.01</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>47</v>
       </c>
@@ -2101,8 +2471,14 @@
       <c r="D61" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>48</v>
       </c>
@@ -2115,8 +2491,14 @@
       <c r="D62" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="10">
+        <v>5</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>49</v>
       </c>
@@ -2129,8 +2511,14 @@
       <c r="D63" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>50</v>
       </c>
@@ -2143,8 +2531,14 @@
       <c r="D64" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>53</v>
       </c>
@@ -2157,8 +2551,14 @@
       <c r="D65" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>54</v>
       </c>
@@ -2171,8 +2571,14 @@
       <c r="D66" s="19">
         <v>62.225999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>55</v>
       </c>
@@ -2185,12 +2591,18 @@
       <c r="D67" s="19">
         <v>65.23</v>
       </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4034,29 +4446,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="26" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>18.600000000000001</v>
       </c>
@@ -4069,8 +4491,14 @@
       <c r="D2" s="19">
         <v>27753.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>39.32</v>
       </c>
@@ -4083,8 +4511,14 @@
       <c r="D3" s="19">
         <v>-103981.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>91.12</v>
       </c>
@@ -4097,8 +4531,14 @@
       <c r="D4" s="19">
         <v>-114220.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>119.98</v>
       </c>
@@ -4111,8 +4551,14 @@
       <c r="D5" s="19">
         <v>-948.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45.98</v>
       </c>
@@ -4125,8 +4571,14 @@
       <c r="D6" s="19">
         <v>-120158.39999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>100.77</v>
       </c>
@@ -4139,8 +4591,14 @@
       <c r="D7" s="19">
         <v>-98931.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>29.19</v>
       </c>
@@ -4153,11 +4611,18 @@
       <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4166,190 +4631,313 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>-40</v>
       </c>
       <c r="B2" s="18">
         <v>-1.4709000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>-35</v>
       </c>
       <c r="B3" s="18">
         <v>-1.2771999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>-30</v>
       </c>
       <c r="B4" s="18">
         <v>-1.0781000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>-25</v>
       </c>
       <c r="B5" s="18">
         <v>-0.90539999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>-20</v>
       </c>
       <c r="B6" s="18">
         <v>-0.70630000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>-15</v>
       </c>
       <c r="B7" s="18">
         <v>-0.51470000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>-10</v>
       </c>
       <c r="B8" s="18">
         <v>-0.33550000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>-5</v>
       </c>
       <c r="B9" s="18">
         <v>-0.16569999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>0</v>
       </c>
       <c r="B10" s="18">
         <v>-2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>5</v>
       </c>
       <c r="B11" s="18">
         <v>0.1653</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="18">
         <v>0.33510000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>15</v>
       </c>
       <c r="B13" s="18">
         <v>0.51429999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>20</v>
       </c>
       <c r="B14" s="18">
         <v>0.70589999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>25</v>
       </c>
       <c r="B15" s="18">
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>30</v>
       </c>
       <c r="B16" s="18">
         <v>1.0778000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>35</v>
       </c>
       <c r="B17" s="18">
         <v>1.2768999999999999</v>
       </c>
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>40</v>
       </c>
       <c r="B18" s="18">
         <v>1.4705999999999999</v>
       </c>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45</v>
       </c>
       <c r="B19" s="18">
         <v>1.6377999999999999</v>
       </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>50</v>
       </c>
       <c r="B20" s="18">
         <v>1.7667999999999999</v>
       </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>55</v>
       </c>
       <c r="B21" s="18">
         <v>1.8440000000000001</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4362,7 +4950,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4371,20 +4959,28 @@
     <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="26" t="s">
         <v>109</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4400,11 +4996,11 @@
       <c r="D2" s="19">
         <v>4.1980000000000004</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>121</v>
@@ -4423,11 +5019,11 @@
       <c r="D3" s="19">
         <v>0.93200000000000005</v>
       </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -4446,11 +5042,11 @@
       <c r="D4" s="19">
         <v>0.27600000000000002</v>
       </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
@@ -4469,11 +5065,11 @@
       <c r="D5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s">
-        <v>122</v>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
         <v>121</v>
@@ -4492,11 +5088,11 @@
       <c r="D6" s="19">
         <v>0.499</v>
       </c>
-      <c r="E6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G6" t="s">
         <v>121</v>
@@ -4515,11 +5111,11 @@
       <c r="D7" s="19">
         <v>0.223</v>
       </c>
-      <c r="E7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
         <v>121</v>
@@ -4538,11 +5134,11 @@
       <c r="D8" s="19">
         <v>1.8440000000000001</v>
       </c>
-      <c r="E8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" t="s">
-        <v>122</v>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
       </c>
       <c r="G8" t="s">
         <v>121</v>
@@ -4561,11 +5157,11 @@
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.05</v>
       </c>
       <c r="G9" t="s">
         <v>121</v>
@@ -4584,11 +5180,11 @@
       <c r="D10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
       </c>
       <c r="G10" t="s">
         <v>121</v>
@@ -4607,11 +5203,11 @@
       <c r="D11" s="19">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" t="s">
-        <v>122</v>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>121</v>
@@ -4630,11 +5226,11 @@
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>121</v>
@@ -4653,11 +5249,11 @@
       <c r="D13" s="19">
         <v>1.8779999999999999</v>
       </c>
-      <c r="E13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" t="s">
-        <v>122</v>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.05</v>
       </c>
       <c r="G13" t="s">
         <v>121</v>
@@ -4676,11 +5272,11 @@
       <c r="D14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" t="s">
-        <v>122</v>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>121</v>
@@ -4699,10 +5295,10 @@
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>122</v>
       </c>
       <c r="G15" t="s">
@@ -4722,10 +5318,10 @@
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>122</v>
       </c>
       <c r="G16" t="s">
@@ -4745,11 +5341,11 @@
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" t="s">
-        <v>122</v>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
         <v>121</v>
@@ -4769,11 +5365,11 @@
         <f>-0.3846*Parameters!D10+3.3558</f>
         <v>0.30592199999999981</v>
       </c>
-      <c r="E18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
       </c>
       <c r="G18" t="s">
         <v>121</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39662A92-A1C2-4661-A1CA-A443460E3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFCCD17-54A4-4ECB-87A1-4FDB1BCC78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="GrainBulkheads" sheetId="55" r:id="rId5"/>
     <sheet name="Stores" sheetId="57" r:id="rId6"/>
     <sheet name="SF&amp;BM" sheetId="63" r:id="rId7"/>
-    <sheet name="Stabilitycurve" sheetId="61" r:id="rId8"/>
-    <sheet name="StabilityCriteria" sheetId="62" r:id="rId9"/>
-    <sheet name="Parameters" sheetId="65" r:id="rId10"/>
+    <sheet name="SF&amp;BM_max" sheetId="68" r:id="rId8"/>
+    <sheet name="Stabilitycurve" sheetId="61" r:id="rId9"/>
+    <sheet name="StabilityCriteria" sheetId="62" r:id="rId10"/>
+    <sheet name="Parameters" sheetId="65" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="221">
   <si>
     <t>Форпик</t>
   </si>
@@ -691,6 +692,21 @@
   </si>
   <si>
     <t>±0,5 % ширины судна</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>BMmax_abs</t>
+  </si>
+  <si>
+    <t>BMmax_perc</t>
+  </si>
+  <si>
+    <t>SFmax_abs</t>
+  </si>
+  <si>
+    <t>SFmax_perc</t>
   </si>
 </sst>
 </file>
@@ -854,9 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1262,10 +1278,445 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="19">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.499</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="19">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="21">
+        <f>-0.3846*Parameters!D10+3.3558</f>
+        <v>0.30592199999999981</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -1281,16 +1732,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>109</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -1301,14 +1752,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1431,14 +1882,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1842,14 +2293,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -4446,10 +4897,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4459,16 +4910,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>144</v>
       </c>
       <c r="E1" s="24" t="s">
@@ -4557,72 +5008,6 @@
       <c r="F5" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>45.98</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="19">
-        <v>-120158.39999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>100.77</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="19">
-        <v>-98931.4</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>29.19</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="19">
-        <v>-9985.2000000000007</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4630,6 +5015,113 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B4CDE-B303-4916-971E-261855697EB9}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E12:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="10">
+        <v>45.98</v>
+      </c>
+      <c r="C2" s="19">
+        <v>-120158.39999999999</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="10">
+        <v>100.77</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-98931.4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="10">
+        <v>29.19</v>
+      </c>
+      <c r="C4" s="19">
+        <v>-9985.2000000000007</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="10">
+        <v>29.19</v>
+      </c>
+      <c r="C5" s="19">
+        <v>-9985.2000000000007</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -4646,10 +5138,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>118</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -4943,439 +5435,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="19">
-        <v>4.1980000000000004</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.499</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0.223</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="19">
-        <v>55</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="21">
-        <f>-0.3846*Parameters!D10+3.3558</f>
-        <v>0.30592199999999981</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="G18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFCCD17-54A4-4ECB-87A1-4FDB1BCC78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990688CC-E2E7-4C90-88D1-42CE4C67578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -1716,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="10">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5018,7 +5018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B4CDE-B303-4916-971E-261855697EB9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
@@ -5031,7 +5031,7 @@
     <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>65</v>
       </c>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990688CC-E2E7-4C90-88D1-42CE4C67578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2858C49E-D252-4DFA-B196-F7A2BFF15B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="220">
   <si>
     <t>Форпик</t>
   </si>
@@ -410,9 +410,6 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t xml:space="preserve"> Статический крен от ветра              </t>
@@ -1233,31 +1230,31 @@
         <v>78</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>197</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1281,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1297,22 +1294,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>109</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1323,7 +1320,7 @@
         <v>120</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="19">
         <v>4.1980000000000004</v>
@@ -1343,19 +1340,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="19">
         <v>0.93200000000000005</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -1366,10 +1363,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="19">
         <v>0.27600000000000002</v>
@@ -1389,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -1412,10 +1409,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="19">
         <v>0.499</v>
@@ -1435,10 +1432,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19">
         <v>0.223</v>
@@ -1458,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>113</v>
@@ -1481,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>113</v>
@@ -1504,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>113</v>
@@ -1527,19 +1524,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="19">
         <v>55</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10">
         <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>121</v>
@@ -1550,19 +1547,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>121</v>
@@ -1573,7 +1570,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>113</v>
@@ -1596,10 +1593,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -1619,19 +1616,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10">
         <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -1642,19 +1639,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10">
         <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G16" t="s">
         <v>121</v>
@@ -1665,10 +1662,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
@@ -1688,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>113</v>
@@ -1716,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -1745,15 +1742,15 @@
         <v>109</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1766,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="19">
         <v>13987</v>
@@ -1786,7 +1783,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>113</v>
@@ -1806,7 +1803,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>113</v>
@@ -1826,10 +1823,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="19">
         <v>4.9429999999999996</v>
@@ -1846,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>113</v>
@@ -1875,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="10">
         <v>0.05</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -1896,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>113</v>
@@ -1916,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>113</v>
@@ -1936,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>113</v>
@@ -1956,10 +1953,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -1976,10 +1973,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="19">
         <v>-0.01</v>
@@ -1996,7 +1993,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>113</v>
@@ -2017,7 +2014,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>113</v>
@@ -2037,7 +2034,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>113</v>
@@ -2057,7 +2054,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>113</v>
@@ -2077,7 +2074,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>113</v>
@@ -2097,7 +2094,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>113</v>
@@ -2117,7 +2114,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>113</v>
@@ -2137,7 +2134,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>113</v>
@@ -2157,7 +2154,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>113</v>
@@ -2177,7 +2174,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>113</v>
@@ -2197,7 +2194,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>113</v>
@@ -2217,7 +2214,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>113</v>
@@ -2237,7 +2234,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>113</v>
@@ -2257,7 +2254,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>113</v>
@@ -2277,7 +2274,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>113</v>
@@ -2294,7 +2291,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -2307,10 +2304,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="19">
         <v>19.869</v>
@@ -2327,10 +2324,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -2347,10 +2344,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33" s="19">
         <v>193.577</v>
@@ -2367,7 +2364,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>113</v>
@@ -2449,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>113</v>
@@ -2471,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>113</v>
@@ -2492,7 +2489,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>113</v>
@@ -2636,7 +2633,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -2656,7 +2653,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="19">
         <v>883.84199999999998</v>
@@ -2737,7 +2734,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="19">
         <v>0.93200000000000005</v>
@@ -2757,7 +2754,7 @@
         <v>97</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="19">
         <v>1.393</v>
@@ -2777,7 +2774,7 @@
         <v>98</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2797,7 +2794,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="19">
         <v>23.396999999999998</v>
@@ -2817,7 +2814,7 @@
         <v>100</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="19">
         <v>8.3670000000000009</v>
@@ -2837,7 +2834,7 @@
         <v>101</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="19">
         <v>0.17022000000000001</v>
@@ -2857,7 +2854,7 @@
         <v>102</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="19">
         <v>0.71457999999999999</v>
@@ -2877,7 +2874,7 @@
         <v>103</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" s="19">
         <v>22.748000000000001</v>
@@ -2897,7 +2894,7 @@
         <v>104</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="19">
         <v>49.01</v>
@@ -2917,7 +2914,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2937,7 +2934,7 @@
         <v>106</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -2957,7 +2954,7 @@
         <v>107</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -2977,7 +2974,7 @@
         <v>108</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -3003,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F65" s="10">
         <v>0.05</v>
@@ -3093,7 +3090,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3112,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3129,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3146,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3163,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3197,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3231,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3248,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,7 +3296,7 @@
         <v>21.9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3316,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3333,7 +3330,7 @@
         <v>129.9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3350,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3401,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,7 +3449,7 @@
         <v>51.5</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,7 +3466,7 @@
         <v>217.2</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,7 +3483,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,7 +3500,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,7 +3517,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,7 +3551,7 @@
         <v>11.2</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,7 +3568,7 @@
         <v>11.2</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,7 +3585,7 @@
         <v>56.1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,7 +3602,7 @@
         <v>56.1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3639,7 +3636,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,7 +3670,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,7 +3687,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3724,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,7 +3738,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,7 +3789,7 @@
         <v>10.3</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,7 +3806,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3826,7 +3823,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3843,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3860,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3894,7 +3891,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3908,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3928,7 +3925,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,7 +3942,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,7 +3959,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3979,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4088,16 +4085,16 @@
         <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>71</v>
@@ -4106,21 +4103,21 @@
         <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="10">
         <v>4959</v>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="10">
         <v>4959</v>
@@ -4911,22 +4908,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>144</v>
-      </c>
       <c r="E1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5036,21 +5033,21 @@
         <v>65</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="10">
         <v>45.98</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="10">
         <v>100.77</v>
@@ -5084,7 +5081,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="10">
         <v>29.19</v>
@@ -5101,7 +5098,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="10">
         <v>29.19</v>
@@ -5145,10 +5142,10 @@
         <v>118</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2858C49E-D252-4DFA-B196-F7A2BFF15B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C318DD3-29B7-4748-8535-1E9D0CADA43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="221">
   <si>
     <t>Форпик</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>SFmax_perc</t>
+  </si>
+  <si>
+    <t>Поправка к поперечной метацентрической высоте</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -877,6 +880,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1278,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1711,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3044,6 +3050,27 @@
       </c>
       <c r="F67" s="10">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="29">
+        <f>D38+D39</f>
+        <v>4.8081287133235798E-2</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C318DD3-29B7-4748-8535-1E9D0CADA43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7C9E58-BA90-4B9B-A6BE-CFDB41B73879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="221">
   <si>
     <t>Форпик</t>
   </si>
@@ -879,10 +879,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:F68"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1755,14 +1755,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1885,14 +1885,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -2296,14 +2296,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -2461,8 +2461,8 @@
         <f>(108.1+17.1+10.8+14.9+101.8)/14194.1</f>
         <v>1.7803171740370997E-2</v>
       </c>
-      <c r="E38" s="10">
-        <v>2</v>
+      <c r="E38" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>54</v>
@@ -2483,8 +2483,8 @@
         <f>423.5/D3</f>
         <v>3.0278115392864804E-2</v>
       </c>
-      <c r="E39" s="10">
-        <v>2</v>
+      <c r="E39" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>54</v>
@@ -3062,7 +3062,7 @@
       <c r="C68" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="28">
         <f>D38+D39</f>
         <v>4.8081287133235798E-2</v>
       </c>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7C9E58-BA90-4B9B-A6BE-CFDB41B73879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5D2F2-2066-4B28-B4D6-2854B682E437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -1719,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -3088,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,7 +3473,7 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="D22" s="13">
-        <v>51.5</v>
+        <v>111.9</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>194</v>
@@ -4023,7 +4023,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,7 +4102,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5D2F2-2066-4B28-B4D6-2854B682E437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D68F4BD-1A89-4360-BF9D-26A80A35F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -3089,7 +3089,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D53" sqref="D2:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3762,7 +3762,7 @@
         <v>0.9</v>
       </c>
       <c r="D39" s="13">
-        <v>10.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>194</v>
@@ -3813,7 +3813,7 @@
         <v>0.9</v>
       </c>
       <c r="D42" s="13">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>194</v>
@@ -4102,7 +4102,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
